--- a/data/trans_orig/IP16A12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A12_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2736411E-4D57-479B-9FA0-77B1A348F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DF17FE-370C-4EE1-B75B-12CC986EF20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00AC8E38-EEFA-4371-BBC5-5D7CE5979B19}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E7533DF-2326-44B6-B437-B5592E845B89}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>76,51%</t>
   </si>
   <si>
@@ -98,9 +203,6 @@
     <t>85,44%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>23,49%</t>
   </si>
   <si>
@@ -128,64 +230,61 @@
     <t>27,65%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,105 +342,6 @@
   </si>
   <si>
     <t>39,29%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
   </si>
   <si>
     <t>79,53%</t>
@@ -787,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B131B00B-DB53-4560-8D2E-9C8DE33B18C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5FB8A0-06E7-4E2F-AAC8-64833E4F0DB2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -905,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>46554</v>
+        <v>3148</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -920,85 +920,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>34161</v>
+        <v>6617</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>17</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9765</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>118</v>
-      </c>
-      <c r="N4" s="7">
-        <v>80715</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1019</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1019</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
-        <v>14291</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6591</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>36</v>
-      </c>
-      <c r="N5" s="7">
-        <v>20883</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1007,54 +1007,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>40752</v>
+        <v>6617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>101598</v>
+        <v>10784</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1066,13 +1066,13 @@
         <v>17063</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -1081,13 +1081,13 @@
         <v>16987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -1096,19 +1096,19 @@
         <v>34050</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1117,13 +1117,13 @@
         <v>5053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1132,13 +1132,13 @@
         <v>3037</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -1147,13 +1147,13 @@
         <v>8090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1168,13 +1168,13 @@
         <v>22116</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -1183,13 +1183,13 @@
         <v>20024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -1198,117 +1198,117 @@
         <v>42140</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>21949</v>
+        <v>46554</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>34161</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="7">
+        <v>118</v>
+      </c>
+      <c r="N10" s="7">
+        <v>80715</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>36</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23238</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>67</v>
-      </c>
-      <c r="N10" s="7">
-        <v>45188</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>10478</v>
+        <v>14291</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6591</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>36</v>
+      </c>
+      <c r="N11" s="7">
+        <v>20883</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7571</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>26</v>
-      </c>
-      <c r="N11" s="7">
-        <v>18049</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1317,150 +1317,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101598</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>3148</v>
+        <v>48904</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>59</v>
+      </c>
+      <c r="I13" s="7">
+        <v>49705</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>125</v>
+      </c>
+      <c r="N13" s="7">
+        <v>98608</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6617</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9765</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>1019</v>
+        <v>4590</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>8190</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>22</v>
+      </c>
+      <c r="N14" s="7">
+        <v>12780</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1019</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>82</v>
@@ -1472,49 +1472,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6617</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10784</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>48904</v>
+        <v>21949</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -1540,10 +1540,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>49705</v>
+        <v>23238</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -1555,10 +1555,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>98608</v>
+        <v>45188</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -1573,13 +1573,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>4590</v>
+        <v>10478</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -1591,10 +1591,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>8190</v>
+        <v>7571</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -1606,10 +1606,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>12780</v>
+        <v>18049</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -1627,49 +1627,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>57</v>
@@ -1788,13 +1788,13 @@
         <v>173049</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>229</v>
@@ -1803,13 +1803,13 @@
         <v>156098</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>480</v>
@@ -1818,13 +1818,13 @@
         <v>329146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A12_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DF17FE-370C-4EE1-B75B-12CC986EF20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BDC4149-582A-4CE9-9950-4150E34D282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E7533DF-2326-44B6-B437-B5592E845B89}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AE472C0-34BA-4CC0-8BEE-0DCD06F772D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t>Menores según si ha consumido medicinas para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
@@ -68,6 +68,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -92,310 +116,289 @@
     <t>69,63%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>80,8%</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>79,45%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -502,39 +505,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -586,7 +589,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -697,13 +700,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -712,6 +708,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -776,19 +779,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5FB8A0-06E7-4E2F-AAC8-64833E4F0DB2}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E644630A-B609-404D-B070-3FBE264E9D63}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -905,10 +928,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3148</v>
+        <v>1019</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -920,13 +943,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6617</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -935,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>9765</v>
+        <v>1019</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -956,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1019</v>
+        <v>3148</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -971,13 +994,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6617</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -986,19 +1009,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>1019</v>
+        <v>9765</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1013,13 +1036,13 @@
         <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1028,13 +1051,13 @@
         <v>6617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -1043,13 +1066,13 @@
         <v>10784</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1060,10 +1083,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>17063</v>
+        <v>5053</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1075,10 +1098,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>16987</v>
+        <v>3037</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1090,10 +1113,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>34050</v>
+        <v>8090</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1111,10 +1134,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>5053</v>
+        <v>17063</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1126,10 +1149,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>3037</v>
+        <v>16987</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1141,10 +1164,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>8090</v>
+        <v>34050</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1168,13 +1191,13 @@
         <v>22116</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -1183,13 +1206,13 @@
         <v>20024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -1198,13 +1221,13 @@
         <v>42140</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1215,10 +1238,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>46554</v>
+        <v>14291</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1230,10 +1253,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>34161</v>
+        <v>6591</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1245,10 +1268,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>80715</v>
+        <v>20883</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1266,10 +1289,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>14291</v>
+        <v>46554</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1281,10 +1304,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>6591</v>
+        <v>34161</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1296,10 +1319,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="N11" s="7">
-        <v>20883</v>
+        <v>80715</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -1323,13 +1346,13 @@
         <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>63</v>
@@ -1338,13 +1361,13 @@
         <v>40752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>154</v>
@@ -1353,13 +1376,13 @@
         <v>101598</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,10 +1393,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>48904</v>
+        <v>4590</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -1385,10 +1408,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>49705</v>
+        <v>8190</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -1400,10 +1423,10 @@
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>98608</v>
+        <v>12780</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>71</v>
@@ -1421,10 +1444,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>4590</v>
+        <v>48904</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -1436,10 +1459,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I14" s="7">
-        <v>8190</v>
+        <v>49705</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1451,10 +1474,10 @@
         <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="N14" s="7">
-        <v>12780</v>
+        <v>98608</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -1478,13 +1501,13 @@
         <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1493,13 +1516,13 @@
         <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -1508,13 +1531,13 @@
         <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>21949</v>
+        <v>10478</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -1540,10 +1563,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>23238</v>
+        <v>7571</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -1555,10 +1578,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>45188</v>
+        <v>18049</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -1576,10 +1599,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>10478</v>
+        <v>21949</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -1591,10 +1614,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>7571</v>
+        <v>23238</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -1606,10 +1629,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N17" s="7">
-        <v>18049</v>
+        <v>45188</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -1633,13 +1656,13 @@
         <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -1648,13 +1671,13 @@
         <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -1663,13 +1686,13 @@
         <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,10 +1703,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
-        <v>137617</v>
+        <v>35432</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>102</v>
@@ -1695,10 +1718,10 @@
         <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>130708</v>
+        <v>25390</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>105</v>
@@ -1710,10 +1733,10 @@
         <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="N19" s="7">
-        <v>268325</v>
+        <v>60821</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>108</v>
@@ -1731,10 +1754,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="D20" s="7">
-        <v>35432</v>
+        <v>137617</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>111</v>
@@ -1746,10 +1769,10 @@
         <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="I20" s="7">
-        <v>25390</v>
+        <v>130708</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>114</v>
@@ -1761,10 +1784,10 @@
         <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N20" s="7">
-        <v>60821</v>
+        <v>268325</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>117</v>
@@ -1788,13 +1811,13 @@
         <v>173049</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>229</v>
@@ -1803,13 +1826,13 @@
         <v>156098</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>480</v>
@@ -1818,13 +1841,18 @@
         <v>329146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A12_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BDC4149-582A-4CE9-9950-4150E34D282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D25F8D-CC92-4F1A-90AE-C148D492B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AE472C0-34BA-4CC0-8BEE-0DCD06F772D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFDCE7E5-B846-4AD4-A329-056078F0A620}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,79%</t>
+    <t>67,71%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>30,37%</t>
+    <t>26,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>75,54%</t>
   </si>
   <si>
-    <t>32,21%</t>
+    <t>32,29%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,178 +113,178 @@
     <t>90,55%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>80,8%</t>
   </si>
   <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>79,45%</t>
   </si>
   <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -293,109 +293,109 @@
     <t>32,31%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>28,54%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E644630A-B609-404D-B070-3FBE264E9D63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8487FC64-1A7B-4AB0-834D-3FC2445AAE2D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1307,7 +1307,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>34161</v>
+        <v>34162</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1358,7 +1358,7 @@
         <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>40752</v>
+        <v>40753</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>

--- a/data/trans_orig/IP16A12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A12_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D25F8D-CC92-4F1A-90AE-C148D492B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF313B66-16E5-4DBA-AECD-572868F91670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFDCE7E5-B846-4AD4-A329-056078F0A620}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FE1FFFE2-F050-43DE-B177-A34E259FAB33}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si ha consumido medicinas para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,337 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -810,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8487FC64-1A7B-4AB0-834D-3FC2445AAE2D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8787FB-A24E-4FE7-8EFB-EB86C4971D0C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -928,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1019</v>
+        <v>3022</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -943,85 +895,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>1019</v>
+        <v>9314</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>3148</v>
+        <v>23916</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>6617</v>
+        <v>21876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N5" s="7">
-        <v>9765</v>
+        <v>45791</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1030,153 +982,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>26938</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I6" s="7">
-        <v>6617</v>
+        <v>28167</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="N6" s="7">
-        <v>10784</v>
+        <v>55105</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>5053</v>
+        <v>7029</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>3037</v>
+        <v>14720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>8090</v>
+        <v>21749</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>17063</v>
+        <v>37753</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>16987</v>
+        <v>49089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7">
-        <v>34050</v>
+        <v>86842</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1185,153 +1137,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>22116</v>
+        <v>44782</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>20024</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="N9" s="7">
-        <v>42140</v>
+        <v>108591</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>14291</v>
+        <v>8157</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6591</v>
+        <v>4916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>20883</v>
+        <v>13073</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>46554</v>
+        <v>68914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>34162</v>
+        <v>52007</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N11" s="7">
-        <v>80715</v>
+        <v>120921</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,153 +1292,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40753</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101598</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>4590</v>
+        <v>7461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>8190</v>
+        <v>10807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>12780</v>
+        <v>18268</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>48904</v>
+        <v>23100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>49705</v>
+        <v>23002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7">
-        <v>98608</v>
+        <v>46102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,153 +1447,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>10478</v>
+        <v>25669</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I16" s="7">
-        <v>7571</v>
+        <v>36735</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N16" s="7">
-        <v>18049</v>
+        <v>62404</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="D17" s="7">
-        <v>21949</v>
+        <v>153683</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="I17" s="7">
-        <v>23238</v>
+        <v>145974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="N17" s="7">
-        <v>45188</v>
+        <v>299657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,217 +1602,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>179352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182709</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>480</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>362061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>57</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35432</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="7">
-        <v>43</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25390</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>100</v>
-      </c>
-      <c r="N19" s="7">
-        <v>60821</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>194</v>
-      </c>
-      <c r="D20" s="7">
-        <v>137617</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>186</v>
-      </c>
-      <c r="I20" s="7">
-        <v>130708</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>380</v>
-      </c>
-      <c r="N20" s="7">
-        <v>268325</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>251</v>
-      </c>
-      <c r="D21" s="7">
-        <v>173049</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>229</v>
-      </c>
-      <c r="I21" s="7">
-        <v>156098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>480</v>
-      </c>
-      <c r="N21" s="7">
-        <v>329146</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
